--- a/Enrollproject/ShiQu.xlsx
+++ b/Enrollproject/ShiQu.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>姓名</t>
   </si>
@@ -41,112 +41,28 @@
     <t>午餐</t>
   </si>
   <si>
-    <t>自己</t>
-  </si>
-  <si>
-    <t>11111111112</t>
-  </si>
-  <si>
-    <t>管联</t>
+    <t>翟昱培</t>
+  </si>
+  <si>
+    <t>13579878410</t>
+  </si>
+  <si>
+    <t>医学</t>
   </si>
   <si>
     <t>市区</t>
   </si>
   <si>
-    <t>单人间</t>
+    <t>双人间</t>
   </si>
   <si>
     <t>单程去</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>2018-11-11 09:32:22</t>
-  </si>
-  <si>
-    <t>11111111111</t>
-  </si>
-  <si>
-    <t>2018-11-11 09:32:43</t>
-  </si>
-  <si>
-    <t>jack jeff</t>
-  </si>
-  <si>
-    <t>18031512033</t>
-  </si>
-  <si>
-    <t>2018-11-11 09:41:49</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>15899247973</t>
-  </si>
-  <si>
-    <t>2018-11-11 09:48:43</t>
-  </si>
-  <si>
-    <t>孙博轩</t>
-  </si>
-  <si>
-    <t>13231571606</t>
-  </si>
-  <si>
-    <t>2018-11-11 09:49:26</t>
-  </si>
-  <si>
-    <t>13255668569</t>
-  </si>
-  <si>
-    <t>2018-11-11 09:51:30</t>
-  </si>
-  <si>
-    <t>huang jeffpeng</t>
-  </si>
-  <si>
-    <t>14777467947</t>
-  </si>
-  <si>
-    <t>2018-11-11 09:53:15</t>
-  </si>
-  <si>
-    <t>我考虑考虑</t>
-  </si>
-  <si>
-    <t>15732058488</t>
-  </si>
-  <si>
-    <t>2018-11-11 09:58:52</t>
-  </si>
-  <si>
-    <t>zhou kk</t>
-  </si>
-  <si>
-    <t>17040502032</t>
-  </si>
-  <si>
-    <t>2018-11-11 09:59:23</t>
-  </si>
-  <si>
-    <t>顾增阳</t>
-  </si>
-  <si>
-    <t>15511922335</t>
-  </si>
-  <si>
-    <t>2018-11-11 09:59:31</t>
-  </si>
-  <si>
-    <t>额呵呵</t>
-  </si>
-  <si>
-    <t>13886558990</t>
-  </si>
-  <si>
-    <t>2018-11-11 10:00:27</t>
+    <t>是</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:16:22</t>
   </si>
 </sst>
 </file>
@@ -486,345 +402,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-    <col customWidth="1" max="8" min="8" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -864,6 +441,85 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="25"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+    <col customWidth="1" max="8" min="8" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Enrollproject/ShiQu.xlsx
+++ b/Enrollproject/ShiQu.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>姓名</t>
   </si>
@@ -63,6 +63,156 @@
   </si>
   <si>
     <t>2018-11-11 17:16:22</t>
+  </si>
+  <si>
+    <t>杨紫曦</t>
+  </si>
+  <si>
+    <t>18903327781</t>
+  </si>
+  <si>
+    <t>2018-11-11 19:22:02</t>
+  </si>
+  <si>
+    <t>冯旭曼</t>
+  </si>
+  <si>
+    <t>18332735068</t>
+  </si>
+  <si>
+    <t>双程</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>2018-11-11 20:42:51</t>
+  </si>
+  <si>
+    <t>周红元</t>
+  </si>
+  <si>
+    <t>18332721256</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:17:43</t>
+  </si>
+  <si>
+    <t>王勇</t>
+  </si>
+  <si>
+    <t>15833840923</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>单人间</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:52:55</t>
+  </si>
+  <si>
+    <t>高天雯</t>
+  </si>
+  <si>
+    <t>18332709603</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:09:55</t>
+  </si>
+  <si>
+    <t>李沛尧</t>
+  </si>
+  <si>
+    <t>15230008796</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:28:21</t>
+  </si>
+  <si>
+    <t>李嘉封</t>
+  </si>
+  <si>
+    <t>18332700280</t>
+  </si>
+  <si>
+    <t>2018-11-11 19:42:31</t>
+  </si>
+  <si>
+    <t>齐艺宁</t>
+  </si>
+  <si>
+    <t>15512552093</t>
+  </si>
+  <si>
+    <t>2018-11-11 20:43:57</t>
+  </si>
+  <si>
+    <t>史铭源</t>
+  </si>
+  <si>
+    <t>15033987684</t>
+  </si>
+  <si>
+    <t>2018-11-11 22:04:06</t>
+  </si>
+  <si>
+    <t>张金蕾</t>
+  </si>
+  <si>
+    <t>18332737939</t>
+  </si>
+  <si>
+    <t>2018-11-11 22:27:02</t>
+  </si>
+  <si>
+    <t>马子璇</t>
+  </si>
+  <si>
+    <t>13933811372</t>
+  </si>
+  <si>
+    <t>2018-11-12 11:16:30</t>
+  </si>
+  <si>
+    <t>张宇璇</t>
+  </si>
+  <si>
+    <t>13513460803</t>
+  </si>
+  <si>
+    <t>2018-11-12 13:14:21</t>
+  </si>
+  <si>
+    <t>陈灏</t>
+  </si>
+  <si>
+    <t>15131593772</t>
+  </si>
+  <si>
+    <t>2018-11-12 13:54:35</t>
+  </si>
+  <si>
+    <t>李博文</t>
+  </si>
+  <si>
+    <t>18143358355</t>
+  </si>
+  <si>
+    <t>2018-11-12 14:42:30</t>
+  </si>
+  <si>
+    <t>高晟珲</t>
+  </si>
+  <si>
+    <t>18332709357</t>
+  </si>
+  <si>
+    <t>2018-11-12 17:45:38</t>
   </si>
 </sst>
 </file>
@@ -454,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +670,58 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +805,7 @@
     <col customWidth="1" max="8" min="8" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,6 +826,345 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Enrollproject/ShiQu.xlsx
+++ b/Enrollproject/ShiQu.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>姓名</t>
   </si>
@@ -41,6 +41,39 @@
     <t>午餐</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>18332763917</t>
+  </si>
+  <si>
+    <t>管联</t>
+  </si>
+  <si>
+    <t>市区</t>
+  </si>
+  <si>
+    <t>单人间</t>
+  </si>
+  <si>
+    <t>单程去</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>2018-11-14 17:51:34</t>
+  </si>
+  <si>
+    <t>理想</t>
+  </si>
+  <si>
+    <t>18332703621</t>
+  </si>
+  <si>
+    <t>2018-11-17 18:38:30</t>
+  </si>
+  <si>
     <t>翟昱培</t>
   </si>
   <si>
@@ -50,15 +83,9 @@
     <t>医学</t>
   </si>
   <si>
-    <t>市区</t>
-  </si>
-  <si>
     <t>双人间</t>
   </si>
   <si>
-    <t>单程去</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -83,12 +110,72 @@
     <t>双程</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>2018-11-11 20:42:51</t>
   </si>
   <si>
+    <t>周禹岐</t>
+  </si>
+  <si>
+    <t>15886220019</t>
+  </si>
+  <si>
+    <t>2018-11-13 10:03:23</t>
+  </si>
+  <si>
+    <t>赵聪钰</t>
+  </si>
+  <si>
+    <t>18231583776</t>
+  </si>
+  <si>
+    <t>2018-11-16 10:12:01</t>
+  </si>
+  <si>
+    <t>欢乐豆</t>
+  </si>
+  <si>
+    <t>18332696585</t>
+  </si>
+  <si>
+    <t>2018-11-17 10:17:17</t>
+  </si>
+  <si>
+    <t>张晴</t>
+  </si>
+  <si>
+    <t>18231583378</t>
+  </si>
+  <si>
+    <t>2018-11-17 16:36:00</t>
+  </si>
+  <si>
+    <t>杨天天</t>
+  </si>
+  <si>
+    <t>15133933556</t>
+  </si>
+  <si>
+    <t>2018-11-17 23:23:03</t>
+  </si>
+  <si>
+    <t>杜奕娴</t>
+  </si>
+  <si>
+    <t>15613572607</t>
+  </si>
+  <si>
+    <t>2018-11-17 23:24:09</t>
+  </si>
+  <si>
+    <t>李淋玉</t>
+  </si>
+  <si>
+    <t>18332739752</t>
+  </si>
+  <si>
+    <t>2018-11-18 14:01:01</t>
+  </si>
+  <si>
     <t>周红元</t>
   </si>
   <si>
@@ -110,9 +197,6 @@
     <t>其他</t>
   </si>
   <si>
-    <t>单人间</t>
-  </si>
-  <si>
     <t>2018-11-11 17:52:55</t>
   </si>
   <si>
@@ -125,15 +209,6 @@
     <t>2018-11-11 18:09:55</t>
   </si>
   <si>
-    <t>李沛尧</t>
-  </si>
-  <si>
-    <t>15230008796</t>
-  </si>
-  <si>
-    <t>2018-11-11 18:28:21</t>
-  </si>
-  <si>
     <t>李嘉封</t>
   </si>
   <si>
@@ -152,15 +227,6 @@
     <t>2018-11-11 20:43:57</t>
   </si>
   <si>
-    <t>史铭源</t>
-  </si>
-  <si>
-    <t>15033987684</t>
-  </si>
-  <si>
-    <t>2018-11-11 22:04:06</t>
-  </si>
-  <si>
     <t>张金蕾</t>
   </si>
   <si>
@@ -170,15 +236,6 @@
     <t>2018-11-11 22:27:02</t>
   </si>
   <si>
-    <t>马子璇</t>
-  </si>
-  <si>
-    <t>13933811372</t>
-  </si>
-  <si>
-    <t>2018-11-12 11:16:30</t>
-  </si>
-  <si>
     <t>张宇璇</t>
   </si>
   <si>
@@ -213,6 +270,141 @@
   </si>
   <si>
     <t>2018-11-12 17:45:38</t>
+  </si>
+  <si>
+    <t>申偲橦</t>
+  </si>
+  <si>
+    <t>13832509932</t>
+  </si>
+  <si>
+    <t>2018-11-14 07:23:00</t>
+  </si>
+  <si>
+    <t>刘淑键</t>
+  </si>
+  <si>
+    <t>18332608836</t>
+  </si>
+  <si>
+    <t>2018-11-14 10:55:44</t>
+  </si>
+  <si>
+    <t>田硕</t>
+  </si>
+  <si>
+    <t>18332607116</t>
+  </si>
+  <si>
+    <t>2018-11-14 12:36:01</t>
+  </si>
+  <si>
+    <t>智慧</t>
+  </si>
+  <si>
+    <t>18931600557</t>
+  </si>
+  <si>
+    <t>2018-11-16 19:22:13</t>
+  </si>
+  <si>
+    <t>刘硕</t>
+  </si>
+  <si>
+    <t>17330257659</t>
+  </si>
+  <si>
+    <t>2018-11-16 21:16:04</t>
+  </si>
+  <si>
+    <t>任兆鑫</t>
+  </si>
+  <si>
+    <t>15231583056</t>
+  </si>
+  <si>
+    <t>2018-11-17 10:25:54</t>
+  </si>
+  <si>
+    <t>陈悦</t>
+  </si>
+  <si>
+    <t>13933862187</t>
+  </si>
+  <si>
+    <t>2018-11-17 10:48:50</t>
+  </si>
+  <si>
+    <t>冯利茹</t>
+  </si>
+  <si>
+    <t>13552938072</t>
+  </si>
+  <si>
+    <t>2018-11-17 12:38:14</t>
+  </si>
+  <si>
+    <t>汪坤</t>
+  </si>
+  <si>
+    <t>18600758042</t>
+  </si>
+  <si>
+    <t>2018-11-17 19:32:19</t>
+  </si>
+  <si>
+    <t>赵腊梅</t>
+  </si>
+  <si>
+    <t>13400164761</t>
+  </si>
+  <si>
+    <t>2018-11-18 10:26:25</t>
+  </si>
+  <si>
+    <t>罗欢</t>
+  </si>
+  <si>
+    <t>15307250913</t>
+  </si>
+  <si>
+    <t>2018-11-18 12:25:45</t>
+  </si>
+  <si>
+    <t>赵倩</t>
+  </si>
+  <si>
+    <t>18332785056</t>
+  </si>
+  <si>
+    <t>2018-11-18 17:15:20</t>
+  </si>
+  <si>
+    <t>单浩然</t>
+  </si>
+  <si>
+    <t>18332937102</t>
+  </si>
+  <si>
+    <t>2018-11-19 07:25:22</t>
+  </si>
+  <si>
+    <t>高雅</t>
+  </si>
+  <si>
+    <t>15032507262</t>
+  </si>
+  <si>
+    <t>2018-11-19 07:28:33</t>
+  </si>
+  <si>
+    <t>邢晓天</t>
+  </si>
+  <si>
+    <t>18831879679</t>
+  </si>
+  <si>
+    <t>2018-11-19 11:08:00</t>
   </si>
 </sst>
 </file>
@@ -552,59 +744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-    <col customWidth="1" max="8" min="8" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,30 +838,317 @@
         <v>17</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="25"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+    <col customWidth="1" max="8" min="8" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +1214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -831,91 +1258,91 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -924,76 +1351,76 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1002,24 +1429,24 @@
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1028,143 +1455,455 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>64</v>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Enrollproject/ShiQu.xlsx
+++ b/Enrollproject/ShiQu.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>姓名</t>
   </si>
@@ -41,10 +41,16 @@
     <t>午餐</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>18332763917</t>
+    <t>完成预报名支付</t>
+  </si>
+  <si>
+    <t>信息提交时间</t>
+  </si>
+  <si>
+    <t>申泽</t>
+  </si>
+  <si>
+    <t>13230869515</t>
   </si>
   <si>
     <t>管联</t>
@@ -62,16 +68,22 @@
     <t>否</t>
   </si>
   <si>
-    <t>2018-11-14 17:51:34</t>
-  </si>
-  <si>
-    <t>理想</t>
-  </si>
-  <si>
-    <t>18332703621</t>
-  </si>
-  <si>
-    <t>2018-11-17 18:38:30</t>
+    <t>2018-11-24 19:54:32</t>
+  </si>
+  <si>
+    <t>王玙璠</t>
+  </si>
+  <si>
+    <t>13326911216</t>
+  </si>
+  <si>
+    <t>双程</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>2018-11-24 23:44:44</t>
   </si>
   <si>
     <t>翟昱培</t>
@@ -86,10 +98,10 @@
     <t>双人间</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>2018-11-11 17:16:22</t>
+    <t>不需要</t>
+  </si>
+  <si>
+    <t>2018-11-24 16:51:53</t>
   </si>
   <si>
     <t>杨紫曦</t>
@@ -98,28 +110,13 @@
     <t>18903327781</t>
   </si>
   <si>
-    <t>2018-11-11 19:22:02</t>
-  </si>
-  <si>
-    <t>冯旭曼</t>
-  </si>
-  <si>
-    <t>18332735068</t>
-  </si>
-  <si>
-    <t>双程</t>
-  </si>
-  <si>
-    <t>2018-11-11 20:42:51</t>
-  </si>
-  <si>
     <t>周禹岐</t>
   </si>
   <si>
     <t>15886220019</t>
   </si>
   <si>
-    <t>2018-11-13 10:03:23</t>
+    <t>2018-11-24 16:51:54</t>
   </si>
   <si>
     <t>赵聪钰</t>
@@ -128,16 +125,7 @@
     <t>18231583776</t>
   </si>
   <si>
-    <t>2018-11-16 10:12:01</t>
-  </si>
-  <si>
-    <t>欢乐豆</t>
-  </si>
-  <si>
-    <t>18332696585</t>
-  </si>
-  <si>
-    <t>2018-11-17 10:17:17</t>
+    <t>2018-11-24 16:51:55</t>
   </si>
   <si>
     <t>张晴</t>
@@ -146,7 +134,7 @@
     <t>18231583378</t>
   </si>
   <si>
-    <t>2018-11-17 16:36:00</t>
+    <t>2018-11-24 16:51:56</t>
   </si>
   <si>
     <t>杨天天</t>
@@ -155,25 +143,97 @@
     <t>15133933556</t>
   </si>
   <si>
-    <t>2018-11-17 23:23:03</t>
-  </si>
-  <si>
     <t>杜奕娴</t>
   </si>
   <si>
     <t>15613572607</t>
   </si>
   <si>
-    <t>2018-11-17 23:24:09</t>
-  </si>
-  <si>
     <t>李淋玉</t>
   </si>
   <si>
     <t>18332739752</t>
   </si>
   <si>
-    <t>2018-11-18 14:01:01</t>
+    <t>李冰楠</t>
+  </si>
+  <si>
+    <t>18332725269</t>
+  </si>
+  <si>
+    <t>2018-11-24 16:51:57</t>
+  </si>
+  <si>
+    <t>赵宁宁</t>
+  </si>
+  <si>
+    <t>18231586281</t>
+  </si>
+  <si>
+    <t>陈然</t>
+  </si>
+  <si>
+    <t>18231585700</t>
+  </si>
+  <si>
+    <t>李传璇</t>
+  </si>
+  <si>
+    <t>18903100992</t>
+  </si>
+  <si>
+    <t>司齐</t>
+  </si>
+  <si>
+    <t>13230533230</t>
+  </si>
+  <si>
+    <t>2018-11-24 18:44:47</t>
+  </si>
+  <si>
+    <t>马哲</t>
+  </si>
+  <si>
+    <t>15297331629</t>
+  </si>
+  <si>
+    <t>2018-11-24 18:48:02</t>
+  </si>
+  <si>
+    <t>何磊</t>
+  </si>
+  <si>
+    <t>17715251890</t>
+  </si>
+  <si>
+    <t>2018-11-26 20:56:10</t>
+  </si>
+  <si>
+    <t>攸泰然</t>
+  </si>
+  <si>
+    <t>13056264444</t>
+  </si>
+  <si>
+    <t>2018-11-26 21:02:06</t>
+  </si>
+  <si>
+    <t>王灿</t>
+  </si>
+  <si>
+    <t>15614106158</t>
+  </si>
+  <si>
+    <t>2018-11-27 12:26:01</t>
+  </si>
+  <si>
+    <t>付晓雨</t>
+  </si>
+  <si>
+    <t>15633586805</t>
+  </si>
+  <si>
+    <t>2018-11-27 13:24:59</t>
   </si>
   <si>
     <t>周红元</t>
@@ -185,226 +245,118 @@
     <t>其它</t>
   </si>
   <si>
-    <t>2018-11-11 17:17:43</t>
-  </si>
-  <si>
-    <t>王勇</t>
-  </si>
-  <si>
-    <t>15833840923</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>2018-11-11 17:52:55</t>
-  </si>
-  <si>
-    <t>高天雯</t>
-  </si>
-  <si>
-    <t>18332709603</t>
-  </si>
-  <si>
-    <t>2018-11-11 18:09:55</t>
-  </si>
-  <si>
-    <t>李嘉封</t>
-  </si>
-  <si>
-    <t>18332700280</t>
-  </si>
-  <si>
-    <t>2018-11-11 19:42:31</t>
-  </si>
-  <si>
     <t>齐艺宁</t>
   </si>
   <si>
     <t>15512552093</t>
   </si>
   <si>
-    <t>2018-11-11 20:43:57</t>
-  </si>
-  <si>
-    <t>张金蕾</t>
-  </si>
-  <si>
-    <t>18332737939</t>
-  </si>
-  <si>
-    <t>2018-11-11 22:27:02</t>
-  </si>
-  <si>
-    <t>张宇璇</t>
-  </si>
-  <si>
-    <t>13513460803</t>
-  </si>
-  <si>
-    <t>2018-11-12 13:14:21</t>
-  </si>
-  <si>
-    <t>陈灏</t>
-  </si>
-  <si>
-    <t>15131593772</t>
-  </si>
-  <si>
-    <t>2018-11-12 13:54:35</t>
-  </si>
-  <si>
-    <t>李博文</t>
-  </si>
-  <si>
-    <t>18143358355</t>
-  </si>
-  <si>
-    <t>2018-11-12 14:42:30</t>
-  </si>
-  <si>
-    <t>高晟珲</t>
-  </si>
-  <si>
-    <t>18332709357</t>
-  </si>
-  <si>
-    <t>2018-11-12 17:45:38</t>
-  </si>
-  <si>
-    <t>申偲橦</t>
-  </si>
-  <si>
-    <t>13832509932</t>
-  </si>
-  <si>
-    <t>2018-11-14 07:23:00</t>
-  </si>
-  <si>
     <t>刘淑键</t>
   </si>
   <si>
     <t>18332608836</t>
   </si>
   <si>
-    <t>2018-11-14 10:55:44</t>
-  </si>
-  <si>
-    <t>田硕</t>
-  </si>
-  <si>
-    <t>18332607116</t>
-  </si>
-  <si>
-    <t>2018-11-14 12:36:01</t>
-  </si>
-  <si>
     <t>智慧</t>
   </si>
   <si>
     <t>18931600557</t>
   </si>
   <si>
-    <t>2018-11-16 19:22:13</t>
-  </si>
-  <si>
     <t>刘硕</t>
   </si>
   <si>
     <t>17330257659</t>
   </si>
   <si>
-    <t>2018-11-16 21:16:04</t>
-  </si>
-  <si>
     <t>任兆鑫</t>
   </si>
   <si>
     <t>15231583056</t>
   </si>
   <si>
-    <t>2018-11-17 10:25:54</t>
-  </si>
-  <si>
-    <t>陈悦</t>
-  </si>
-  <si>
-    <t>13933862187</t>
-  </si>
-  <si>
-    <t>2018-11-17 10:48:50</t>
-  </si>
-  <si>
     <t>冯利茹</t>
   </si>
   <si>
     <t>13552938072</t>
   </si>
   <si>
-    <t>2018-11-17 12:38:14</t>
-  </si>
-  <si>
     <t>汪坤</t>
   </si>
   <si>
     <t>18600758042</t>
   </si>
   <si>
-    <t>2018-11-17 19:32:19</t>
-  </si>
-  <si>
-    <t>赵腊梅</t>
-  </si>
-  <si>
-    <t>13400164761</t>
-  </si>
-  <si>
-    <t>2018-11-18 10:26:25</t>
-  </si>
-  <si>
-    <t>罗欢</t>
-  </si>
-  <si>
-    <t>15307250913</t>
-  </si>
-  <si>
-    <t>2018-11-18 12:25:45</t>
-  </si>
-  <si>
-    <t>赵倩</t>
-  </si>
-  <si>
-    <t>18332785056</t>
-  </si>
-  <si>
-    <t>2018-11-18 17:15:20</t>
-  </si>
-  <si>
     <t>单浩然</t>
   </si>
   <si>
     <t>18332937102</t>
   </si>
   <si>
-    <t>2018-11-19 07:25:22</t>
-  </si>
-  <si>
-    <t>高雅</t>
-  </si>
-  <si>
-    <t>15032507262</t>
-  </si>
-  <si>
-    <t>2018-11-19 07:28:33</t>
-  </si>
-  <si>
-    <t>邢晓天</t>
-  </si>
-  <si>
-    <t>18831879679</t>
-  </si>
-  <si>
-    <t>2018-11-19 11:08:00</t>
+    <t>吴俊辰</t>
+  </si>
+  <si>
+    <t>18583918602</t>
+  </si>
+  <si>
+    <t>林嘉琦</t>
+  </si>
+  <si>
+    <t>18633975928</t>
+  </si>
+  <si>
+    <t>肖柏宇</t>
+  </si>
+  <si>
+    <t>15575290952</t>
+  </si>
+  <si>
+    <t>2018-11-24 17:44:29</t>
+  </si>
+  <si>
+    <t>何世宇</t>
+  </si>
+  <si>
+    <t>13528581531</t>
+  </si>
+  <si>
+    <t>2018-11-24 18:00:12</t>
+  </si>
+  <si>
+    <t>黄羽雲</t>
+  </si>
+  <si>
+    <t>18378708820</t>
+  </si>
+  <si>
+    <t>2018-11-24 20:17:11</t>
+  </si>
+  <si>
+    <t>王晨</t>
+  </si>
+  <si>
+    <t>18832533917</t>
+  </si>
+  <si>
+    <t>2018-11-25 13:19:29</t>
+  </si>
+  <si>
+    <t>张鑫垚</t>
+  </si>
+  <si>
+    <t>13473476315</t>
+  </si>
+  <si>
+    <t>2018-11-27 11:18:43</t>
+  </si>
+  <si>
+    <t>郭嘉丽</t>
+  </si>
+  <si>
+    <t>18332701105</t>
+  </si>
+  <si>
+    <t>2018-11-27 11:24:25</t>
   </si>
 </sst>
 </file>
@@ -744,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,9 +712,10 @@
     <col customWidth="1" max="6" min="6" width="25"/>
     <col customWidth="1" max="7" min="7" width="25"/>
     <col customWidth="1" max="8" min="8" width="25"/>
+    <col customWidth="1" max="9" min="9" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,58 +737,69 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,9 +829,10 @@
     <col customWidth="1" max="6" min="6" width="25"/>
     <col customWidth="1" max="7" min="7" width="25"/>
     <col customWidth="1" max="8" min="8" width="25"/>
+    <col customWidth="1" max="9" min="9" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,191 +854,217 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1081,74 +1072,315 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>51</v>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1178,9 +1410,10 @@
     <col customWidth="1" max="6" min="6" width="25"/>
     <col customWidth="1" max="7" min="7" width="25"/>
     <col customWidth="1" max="8" min="8" width="25"/>
+    <col customWidth="1" max="9" min="9" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,6 +1434,12 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,9 +1469,10 @@
     <col customWidth="1" max="6" min="6" width="25"/>
     <col customWidth="1" max="7" min="7" width="25"/>
     <col customWidth="1" max="8" min="8" width="25"/>
+    <col customWidth="1" max="9" min="9" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,656 +1494,504 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Enrollproject/ShiQu.xlsx
+++ b/Enrollproject/ShiQu.xlsx
@@ -18,14 +18,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>姓名</t>
   </si>
   <si>
+    <t>性别</t>
+  </si>
+  <si>
     <t>手机</t>
   </si>
   <si>
+    <t>考点</t>
+  </si>
+  <si>
     <t>专业</t>
   </si>
   <si>
@@ -41,7 +47,13 @@
     <t>午餐</t>
   </si>
   <si>
-    <t>完成预报名支付</t>
+    <t>预报名支付</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>正式报名支付</t>
   </si>
   <si>
     <t>信息提交时间</t>
@@ -86,6 +98,18 @@
     <t>2018-11-24 23:44:44</t>
   </si>
   <si>
+    <t>李鑫</t>
+  </si>
+  <si>
+    <t>18733509553</t>
+  </si>
+  <si>
+    <t>双人间</t>
+  </si>
+  <si>
+    <t>2018-11-27 22:22:42</t>
+  </si>
+  <si>
     <t>翟昱培</t>
   </si>
   <si>
@@ -95,9 +119,6 @@
     <t>医学</t>
   </si>
   <si>
-    <t>双人间</t>
-  </si>
-  <si>
     <t>不需要</t>
   </si>
   <si>
@@ -236,6 +257,15 @@
     <t>2018-11-27 13:24:59</t>
   </si>
   <si>
+    <t>邢晓倩</t>
+  </si>
+  <si>
+    <t>18733510212</t>
+  </si>
+  <si>
+    <t>2018-11-27 22:26:24</t>
+  </si>
+  <si>
     <t>周红元</t>
   </si>
   <si>
@@ -357,6 +387,33 @@
   </si>
   <si>
     <t>2018-11-27 11:24:25</t>
+  </si>
+  <si>
+    <t>古荣华</t>
+  </si>
+  <si>
+    <t>18331566973</t>
+  </si>
+  <si>
+    <t>2018-11-29 07:43:19</t>
+  </si>
+  <si>
+    <t>周桦</t>
+  </si>
+  <si>
+    <t>18332787019</t>
+  </si>
+  <si>
+    <t>2018-11-29 14:01:20</t>
+  </si>
+  <si>
+    <t>亢泽</t>
+  </si>
+  <si>
+    <t>13231555159</t>
+  </si>
+  <si>
+    <t>2018-11-29 16:37:53</t>
   </si>
 </sst>
 </file>
@@ -696,7 +753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,9 +770,12 @@
     <col customWidth="1" max="7" min="7" width="25"/>
     <col customWidth="1" max="8" min="8" width="25"/>
     <col customWidth="1" max="9" min="9" width="25"/>
+    <col customWidth="1" max="10" min="10" width="25"/>
+    <col customWidth="1" max="11" min="11" width="25"/>
+    <col customWidth="1" max="12" min="12" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,63 +803,122 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s"/>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s"/>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s"/>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s"/>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s"/>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s"/>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s"/>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s"/>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,9 +949,12 @@
     <col customWidth="1" max="7" min="7" width="25"/>
     <col customWidth="1" max="8" min="8" width="25"/>
     <col customWidth="1" max="9" min="9" width="25"/>
+    <col customWidth="1" max="10" min="10" width="25"/>
+    <col customWidth="1" max="11" min="11" width="25"/>
+    <col customWidth="1" max="12" min="12" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,527 +982,682 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s"/>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s"/>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s"/>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s"/>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s"/>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s"/>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s"/>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s"/>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s"/>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s"/>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s"/>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s"/>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s"/>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s"/>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s"/>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s"/>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s"/>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s"/>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s"/>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s"/>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s"/>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s"/>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s"/>
+      <c r="L9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s"/>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s"/>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s"/>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s"/>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s"/>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s"/>
+      <c r="L11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s"/>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s"/>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1" t="s"/>
+      <c r="L12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s"/>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s"/>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s"/>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s"/>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s"/>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="1" t="s"/>
+      <c r="L14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s"/>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s"/>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1" t="s"/>
+      <c r="L15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s"/>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s"/>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="1" t="s"/>
+      <c r="L16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s"/>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s"/>
+      <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="1" t="s"/>
+      <c r="L17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s"/>
       <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s"/>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="1" t="s"/>
+      <c r="L18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B19" s="1" t="s"/>
       <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s"/>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="1" t="s"/>
+      <c r="L19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s"/>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s"/>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="1" t="s"/>
+      <c r="L20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,9 +1688,12 @@
     <col customWidth="1" max="7" min="7" width="25"/>
     <col customWidth="1" max="8" min="8" width="25"/>
     <col customWidth="1" max="9" min="9" width="25"/>
+    <col customWidth="1" max="10" min="10" width="25"/>
+    <col customWidth="1" max="11" min="11" width="25"/>
+    <col customWidth="1" max="12" min="12" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1440,6 +1720,18 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +1745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,9 +1762,12 @@
     <col customWidth="1" max="7" min="7" width="25"/>
     <col customWidth="1" max="8" min="8" width="25"/>
     <col customWidth="1" max="9" min="9" width="25"/>
+    <col customWidth="1" max="10" min="10" width="25"/>
+    <col customWidth="1" max="11" min="11" width="25"/>
+    <col customWidth="1" max="12" min="12" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,498 +1795,717 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
       <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D2" s="1" t="s"/>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s"/>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s"/>
       <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s"/>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s"/>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s"/>
       <c r="C4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s"/>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s"/>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s"/>
       <c r="C5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s"/>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s"/>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s"/>
       <c r="C6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="s"/>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s"/>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s"/>
+      <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="1" t="s"/>
+      <c r="E7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s"/>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s"/>
       <c r="C8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D8" s="1" t="s"/>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s"/>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B9" s="1" t="s"/>
       <c r="C9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D9" s="1" t="s"/>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s"/>
+      <c r="L9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B10" s="1" t="s"/>
       <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D10" s="1" t="s"/>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s"/>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B11" s="1" t="s"/>
       <c r="C11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D11" s="1" t="s"/>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s"/>
+      <c r="L11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B12" s="1" t="s"/>
       <c r="C12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D12" s="1" t="s"/>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1" t="s"/>
+      <c r="L12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B13" s="1" t="s"/>
       <c r="C13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D13" s="1" t="s"/>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="1" t="s"/>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B14" s="1" t="s"/>
       <c r="C14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="s"/>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="1" t="s"/>
+      <c r="L14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B15" s="1" t="s"/>
       <c r="C15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D15" s="1" t="s"/>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1" t="s"/>
+      <c r="L15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s"/>
       <c r="C16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D16" s="1" t="s"/>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="1" t="s"/>
+      <c r="L16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B17" s="1" t="s"/>
       <c r="C17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D17" s="1" t="s"/>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="1" t="s"/>
+      <c r="L17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B18" s="1" t="s"/>
       <c r="C18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D18" s="1" t="s"/>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>112</v>
+        <v>24</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="1" t="s"/>
+      <c r="L18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="1" t="s"/>
+      <c r="C19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="1" t="s"/>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="1" t="s"/>
+      <c r="L19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="1" t="s"/>
+      <c r="C20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="1" t="s"/>
+      <c r="E20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="1" t="s"/>
+      <c r="L20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="1" t="s"/>
+      <c r="C21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="1" t="s"/>
+      <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1" t="s"/>
+      <c r="L21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
